--- a/Howard_S371832/TimeSheet.xlsx
+++ b/Howard_S371832/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howardmai/Library/Mobile Documents/com~apple~CloudDocs/ACADEMY/CDU/25S2/PRT681/PRT681_S2025_developers/Howard_S371832/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2C253-2928-F64B-87B0-6D49943969CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E6551-0ECB-4449-A995-66BCEB21CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33120" windowHeight="18000" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Week</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>Learned about Models, Namespaces,  and Database Connection</t>
+  </si>
+  <si>
+    <t>Learned about Config, Dapper, and Entity Framework</t>
+  </si>
+  <si>
+    <t>Leanred about Reading/Writing to files, Parsing JSON, and Simple Model Mapping</t>
+  </si>
+  <si>
+    <t>Leanred about JSON Deserializing / Serializing, Async &amp; Await theories, and Task</t>
   </si>
 </sst>
 </file>
@@ -376,45 +388,48 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,9 +437,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,30 +801,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -823,12 +835,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -837,14 +849,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
@@ -853,12 +865,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
@@ -867,30 +879,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -901,148 +913,236 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
+  <mergeCells count="41">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1096,24 +1196,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1124,12 +1224,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1138,64 +1238,64 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1204,86 +1304,86 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1292,36 +1392,36 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1329,14 +1429,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="B9:B12"/>
@@ -1353,6 +1445,14 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1360,9 +1460,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1528,19 +1631,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1564,9 +1663,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Howard_S371832/TimeSheet.xlsx
+++ b/Howard_S371832/TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howardmai/Library/Mobile Documents/com~apple~CloudDocs/ACADEMY/CDU/25S2/PRT681/PRT681_S2025_developers/Howard_S371832/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E6551-0ECB-4449-A995-66BCEB21CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E2FA6-A302-BC42-AB97-EC060D802686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33120" windowHeight="18000" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Week</t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>Leanred about JSON Deserializing / Serializing, Async &amp; Await theories, and Task</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>Learned about basic concepts of how Blazor frontend work</t>
+  </si>
+  <si>
+    <t>Developed a Movie Management web app using Blazor</t>
   </si>
 </sst>
 </file>
@@ -388,48 +406,45 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,6 +452,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,30 +819,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -835,12 +853,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -849,14 +867,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
@@ -865,12 +883,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
@@ -879,30 +897,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -913,70 +931,70 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -987,12 +1005,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1001,14 +1019,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1017,12 +1035,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1031,87 +1049,180 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
+  <mergeCells count="51">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D3:D4"/>
@@ -1128,21 +1239,16 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1196,24 +1302,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1224,12 +1330,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1238,64 +1344,64 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1304,86 +1410,86 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1392,36 +1498,36 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1429,6 +1535,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="B9:B12"/>
@@ -1445,14 +1559,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1469,6 +1575,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF7D5EB9F8E73A4CAE7C779908096F7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e61dfdf9a683c98215621ae48838c6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0fc1988-bccd-4bd4-9c78-560c29842df2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ced57ef6210b51da0a3f92de186c21a" ns2:_="">
     <xsd:import namespace="d0fc1988-bccd-4bd4-9c78-560c29842df2"/>
@@ -1630,12 +1742,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
@@ -1645,6 +1751,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B82ADB-B17D-4A81-A55F-23C65B33E86E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1660,13 +1775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Howard_S371832/TimeSheet.xlsx
+++ b/Howard_S371832/TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howardmai/Library/Mobile Documents/com~apple~CloudDocs/ACADEMY/CDU/25S2/PRT681/PRT681_S2025_developers/Howard_S371832/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E2FA6-A302-BC42-AB97-EC060D802686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202D76D-D9CD-3B48-9AEF-96B3DD1A5417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33120" windowHeight="18000" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Week</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Developed a Movie Management web app using Blazor</t>
+  </si>
+  <si>
+    <t>Learned about basic concepts of SQL, DDL, DML</t>
+  </si>
+  <si>
+    <t>Used SQL commands to create and modify schemas, databases, and tables</t>
+  </si>
+  <si>
+    <t>Learned about how to use Dapper, EF to interact with the databse</t>
   </si>
 </sst>
 </file>
@@ -439,12 +448,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,9 +464,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,8 +784,8 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,9 +1165,11 @@
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -1168,7 +1179,9 @@
       <c r="G28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
@@ -1182,7 +1195,9 @@
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
@@ -1194,20 +1209,35 @@
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
+  <mergeCells count="52">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E9:E12"/>
@@ -1224,31 +1254,17 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1302,14 +1318,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -1368,26 +1384,26 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -1446,36 +1462,36 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
@@ -1535,14 +1551,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="B9:B12"/>
@@ -1559,6 +1567,14 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1575,12 +1591,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF7D5EB9F8E73A4CAE7C779908096F7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e61dfdf9a683c98215621ae48838c6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0fc1988-bccd-4bd4-9c78-560c29842df2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ced57ef6210b51da0a3f92de186c21a" ns2:_="">
     <xsd:import namespace="d0fc1988-bccd-4bd4-9c78-560c29842df2"/>
@@ -1742,6 +1752,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
@@ -1751,15 +1767,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B82ADB-B17D-4A81-A55F-23C65B33E86E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1775,4 +1782,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>